--- a/PastaDocumentosRequisitos/Exercício Prático aula 4 (Gucci).xlsx
+++ b/PastaDocumentosRequisitos/Exercício Prático aula 4 (Gucci).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9435E400-B27D-48A5-95D2-C0E778AD8FFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08D1962-5832-4E6A-9C2A-F4EEB382C36F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{E503D619-9EDB-4F90-89D6-8F474D253F31}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>REQUISITO</t>
   </si>
@@ -114,6 +114,9 @@
   <si>
     <t>Cada cliente só visualiza o seus pontos</t>
   </si>
+  <si>
+    <t>Banana</t>
+  </si>
 </sst>
 </file>
 
@@ -122,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="00000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +161,13 @@
       <color theme="0"/>
       <name val="Alianza Italic 500"/>
       <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Gill Sans MT Condensed"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -320,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -377,7 +387,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -595,8 +608,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CADCCB07-6777-4E16-8018-FD5269D5F97D}" name="Table2" displayName="Table2" ref="A1:D8" totalsRowShown="0" headerRowDxfId="4" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:D8" xr:uid="{89B80B34-87F5-40DB-B7EB-296F7E7B0A72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CADCCB07-6777-4E16-8018-FD5269D5F97D}" name="Table2" displayName="Table2" ref="A1:D9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:D9" xr:uid="{89B80B34-87F5-40DB-B7EB-296F7E7B0A72}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8E8F2DED-6224-48FF-90F8-A5D900868E81}" name="REQUISITO" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{4D81429C-6873-4B80-B80D-B06BF193F285}" name="FUNCIONAL OU NÃO" dataDxfId="2"/>
@@ -907,7 +920,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,7 +958,7 @@
       <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5"/>
@@ -967,7 +980,7 @@
       <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="5"/>
@@ -989,7 +1002,7 @@
       <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="5"/>
@@ -1002,7 +1015,7 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -1011,7 +1024,7 @@
       <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="5"/>
@@ -1024,7 +1037,7 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="81" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1033,7 +1046,7 @@
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="5"/>
@@ -1046,16 +1059,16 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="3"/>
@@ -1068,16 +1081,16 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="3"/>
@@ -1089,11 +1102,17 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="18"/>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="19"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
